--- a/WK7.xlsx
+++ b/WK7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asiimov/Developer/Github Repositories/ScheduleReader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8518E896-6E50-004E-BA81-A140D46DD426}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83A69C3-FF01-7D4B-B0A6-DF3BD13F0E39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="141">
   <si>
     <t>EAP WEEK 7</t>
   </si>
@@ -500,12 +500,16 @@
   <si>
     <t>学生在没有课的时段须到指定自习室进行自习，由值班老师考勤</t>
   </si>
+  <si>
+    <t>9:40-10:20</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,8 +610,15 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="12">
@@ -915,7 +926,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1060,6 +1071,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1262,6 +1276,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1545,8 +1562,8 @@
   </sheetPr>
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:H83"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="21"/>
@@ -1565,16 +1582,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="43" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1">
       <c r="A2" s="16"/>
@@ -1607,14 +1624,14 @@
       <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" ht="40" customHeight="1">
-      <c r="A4" s="52">
+      <c r="A4" s="53">
         <v>1</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="66" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="67" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="23" t="s">
@@ -1631,10 +1648,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="40" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="67"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="25" t="s">
         <v>11</v>
       </c>
@@ -1649,10 +1666,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="40" customHeight="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="67"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="25" t="s">
         <v>13</v>
       </c>
@@ -1667,10 +1684,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="40" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="67"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="68"/>
       <c r="E7" s="25" t="s">
         <v>15</v>
       </c>
@@ -1685,10 +1702,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="40" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="67"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="68"/>
       <c r="E8" s="25" t="s">
         <v>17</v>
       </c>
@@ -1703,10 +1720,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="40" customHeight="1">
-      <c r="A9" s="53"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="67"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="25" t="s">
         <v>19</v>
       </c>
@@ -1721,10 +1738,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="40" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="67"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="68"/>
       <c r="E10" s="25" t="s">
         <v>21</v>
       </c>
@@ -1739,10 +1756,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="40" customHeight="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="67"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="68"/>
       <c r="E11" s="25" t="s">
         <v>23</v>
       </c>
@@ -1757,10 +1774,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="40" customHeight="1">
-      <c r="A12" s="54"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="68"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="69"/>
       <c r="E12" s="27" t="s">
         <v>25</v>
       </c>
@@ -1775,14 +1792,14 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="40" customHeight="1">
-      <c r="A13" s="52">
+      <c r="A13" s="53">
         <v>2</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="66" t="s">
+      <c r="C13" s="65"/>
+      <c r="D13" s="67" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="29" t="s">
@@ -1799,10 +1816,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="40" customHeight="1">
-      <c r="A14" s="53"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="67"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="68"/>
       <c r="E14" s="29" t="s">
         <v>29</v>
       </c>
@@ -1817,10 +1834,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="40" customHeight="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="69"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="29" t="s">
         <v>30</v>
       </c>
@@ -1835,10 +1852,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="40" customHeight="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="69"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="29" t="s">
         <v>31</v>
       </c>
@@ -1853,10 +1870,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="40" customHeight="1">
-      <c r="A17" s="53"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="69"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="70"/>
       <c r="E17" s="29" t="s">
         <v>32</v>
       </c>
@@ -1871,10 +1888,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="40" customHeight="1">
-      <c r="A18" s="53"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="69"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="70"/>
       <c r="E18" s="29" t="s">
         <v>33</v>
       </c>
@@ -1889,10 +1906,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="40" customHeight="1">
-      <c r="A19" s="53"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="69"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="70"/>
       <c r="E19" s="29" t="s">
         <v>8</v>
       </c>
@@ -1907,10 +1924,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="40" customHeight="1">
-      <c r="A20" s="53"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="69"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="70"/>
       <c r="E20" s="29" t="s">
         <v>8</v>
       </c>
@@ -1925,10 +1942,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="40" customHeight="1">
-      <c r="A21" s="54"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="70"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="71"/>
       <c r="E21" s="30" t="s">
         <v>8</v>
       </c>
@@ -1943,15 +1960,15 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="40" customHeight="1">
-      <c r="A22" s="52">
+      <c r="A22" s="53">
         <v>3</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="66" t="s">
-        <v>35</v>
+      <c r="C22" s="65"/>
+      <c r="D22" s="117" t="s">
+        <v>140</v>
       </c>
       <c r="E22" s="29" t="s">
         <v>28</v>
@@ -1967,10 +1984,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="40" customHeight="1">
-      <c r="A23" s="53"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="67"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="68"/>
       <c r="E23" s="29" t="s">
         <v>29</v>
       </c>
@@ -1985,10 +2002,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="40" customHeight="1">
-      <c r="A24" s="53"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="67"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="68"/>
       <c r="E24" s="29" t="s">
         <v>42</v>
       </c>
@@ -2003,10 +2020,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="40" customHeight="1">
-      <c r="A25" s="53"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="67"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="68"/>
       <c r="E25" s="29" t="s">
         <v>45</v>
       </c>
@@ -2021,10 +2038,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="40" customHeight="1">
-      <c r="A26" s="53"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="67"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="68"/>
       <c r="E26" s="29" t="s">
         <v>49</v>
       </c>
@@ -2039,10 +2056,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="40" customHeight="1">
-      <c r="A27" s="53"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="67"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="68"/>
       <c r="E27" s="29" t="s">
         <v>53</v>
       </c>
@@ -2057,10 +2074,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="40" customHeight="1">
-      <c r="A28" s="53"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="67"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="68"/>
       <c r="E28" s="29" t="s">
         <v>8</v>
       </c>
@@ -2075,10 +2092,10 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="40" customHeight="1">
-      <c r="A29" s="53"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="67"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="68"/>
       <c r="E29" s="29" t="s">
         <v>8</v>
       </c>
@@ -2093,10 +2110,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="40" customHeight="1">
-      <c r="A30" s="55"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="71"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="72"/>
       <c r="E30" s="33" t="s">
         <v>8</v>
       </c>
@@ -2111,10 +2128,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="40" customHeight="1">
-      <c r="A31" s="54"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="68"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="69"/>
       <c r="E31" s="30" t="s">
         <v>8</v>
       </c>
@@ -2129,14 +2146,14 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="40" customHeight="1">
-      <c r="A32" s="52">
+      <c r="A32" s="53">
         <v>4</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="72" t="s">
+      <c r="C32" s="65"/>
+      <c r="D32" s="73" t="s">
         <v>57</v>
       </c>
       <c r="E32" s="31" t="s">
@@ -2153,10 +2170,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="40" customHeight="1">
-      <c r="A33" s="53"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="73"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="74"/>
       <c r="E33" s="32" t="s">
         <v>39</v>
       </c>
@@ -2171,10 +2188,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="40" customHeight="1">
-      <c r="A34" s="53"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="73"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="74"/>
       <c r="E34" s="32" t="s">
         <v>43</v>
       </c>
@@ -2189,10 +2206,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="40" customHeight="1">
-      <c r="A35" s="53"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="73"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="74"/>
       <c r="E35" s="32" t="s">
         <v>46</v>
       </c>
@@ -2207,10 +2224,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="40" customHeight="1">
-      <c r="A36" s="53"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="73"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="74"/>
       <c r="E36" s="32" t="s">
         <v>50</v>
       </c>
@@ -2225,10 +2242,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="40" customHeight="1">
-      <c r="A37" s="53"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="73"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="74"/>
       <c r="E37" s="32" t="s">
         <v>54</v>
       </c>
@@ -2243,10 +2260,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="40" customHeight="1">
-      <c r="A38" s="53"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="73"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="74"/>
       <c r="E38" s="32" t="s">
         <v>72</v>
       </c>
@@ -2261,10 +2278,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="40" customHeight="1">
-      <c r="A39" s="53"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="73"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="74"/>
       <c r="E39" s="32" t="s">
         <v>56</v>
       </c>
@@ -2279,10 +2296,10 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="40" customHeight="1">
-      <c r="A40" s="55"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="74"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="75"/>
       <c r="E40" s="32" t="s">
         <v>8</v>
       </c>
@@ -2297,10 +2314,10 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="40" customHeight="1">
-      <c r="A41" s="54"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="75"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="76"/>
       <c r="E41" s="34" t="s">
         <v>8</v>
       </c>
@@ -2315,14 +2332,14 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="40" customHeight="1">
-      <c r="A42" s="52">
+      <c r="A42" s="53">
         <v>5</v>
       </c>
-      <c r="B42" s="60" t="s">
+      <c r="B42" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="64"/>
-      <c r="D42" s="72" t="s">
+      <c r="C42" s="65"/>
+      <c r="D42" s="73" t="s">
         <v>77</v>
       </c>
       <c r="E42" s="31" t="s">
@@ -2339,10 +2356,10 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="40" customHeight="1">
-      <c r="A43" s="53"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="73"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="74"/>
       <c r="E43" s="32" t="s">
         <v>39</v>
       </c>
@@ -2357,10 +2374,10 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="40" customHeight="1">
-      <c r="A44" s="53"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="73"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="74"/>
       <c r="E44" s="32" t="s">
         <v>43</v>
       </c>
@@ -2375,10 +2392,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="40" customHeight="1">
-      <c r="A45" s="53"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="73"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="74"/>
       <c r="E45" s="32" t="s">
         <v>46</v>
       </c>
@@ -2393,10 +2410,10 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="40" customHeight="1">
-      <c r="A46" s="53"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="73"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="74"/>
       <c r="E46" s="32" t="s">
         <v>50</v>
       </c>
@@ -2411,10 +2428,10 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="40" customHeight="1">
-      <c r="A47" s="53"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="73"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="74"/>
       <c r="E47" s="32" t="s">
         <v>54</v>
       </c>
@@ -2429,10 +2446,10 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="40" customHeight="1">
-      <c r="A48" s="53"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="73"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="74"/>
       <c r="E48" s="32" t="s">
         <v>72</v>
       </c>
@@ -2447,10 +2464,10 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="40" customHeight="1">
-      <c r="A49" s="53"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="73"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="74"/>
       <c r="E49" s="32" t="s">
         <v>56</v>
       </c>
@@ -2465,10 +2482,10 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="40" customHeight="1">
-      <c r="A50" s="55"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="74"/>
+      <c r="A50" s="56"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="75"/>
       <c r="E50" s="32" t="s">
         <v>8</v>
       </c>
@@ -2483,10 +2500,10 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="40" customHeight="1">
-      <c r="A51" s="54"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="75"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="76"/>
       <c r="E51" s="34" t="s">
         <v>8</v>
       </c>
@@ -2503,7 +2520,7 @@
     <row r="52" spans="1:8" ht="40" customHeight="1">
       <c r="A52" s="20"/>
       <c r="B52" s="21"/>
-      <c r="C52" s="64"/>
+      <c r="C52" s="65"/>
       <c r="D52" s="22"/>
       <c r="E52" s="40"/>
       <c r="F52" s="41"/>
@@ -2511,14 +2528,14 @@
       <c r="H52" s="41"/>
     </row>
     <row r="53" spans="1:8" ht="40" customHeight="1">
-      <c r="A53" s="52">
+      <c r="A53" s="53">
         <v>6</v>
       </c>
-      <c r="B53" s="56" t="s">
+      <c r="B53" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C53" s="64"/>
-      <c r="D53" s="66" t="s">
+      <c r="C53" s="65"/>
+      <c r="D53" s="67" t="s">
         <v>85</v>
       </c>
       <c r="E53" s="42" t="s">
@@ -2535,10 +2552,10 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="40" customHeight="1">
-      <c r="A54" s="53"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="67"/>
+      <c r="A54" s="54"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="68"/>
       <c r="E54" s="43" t="s">
         <v>87</v>
       </c>
@@ -2553,10 +2570,10 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="40" customHeight="1">
-      <c r="A55" s="53"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="67"/>
+      <c r="A55" s="54"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="68"/>
       <c r="E55" s="43" t="s">
         <v>89</v>
       </c>
@@ -2571,10 +2588,10 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="40" customHeight="1">
-      <c r="A56" s="53"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="67"/>
+      <c r="A56" s="54"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="68"/>
       <c r="E56" s="44" t="s">
         <v>90</v>
       </c>
@@ -2589,10 +2606,10 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="40" customHeight="1">
-      <c r="A57" s="53"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="67"/>
+      <c r="A57" s="54"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="68"/>
       <c r="E57" s="43" t="s">
         <v>91</v>
       </c>
@@ -2607,10 +2624,10 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="40" customHeight="1">
-      <c r="A58" s="53"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="67"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="68"/>
       <c r="E58" s="43" t="s">
         <v>92</v>
       </c>
@@ -2625,10 +2642,10 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="40" customHeight="1">
-      <c r="A59" s="53"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="67"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="68"/>
       <c r="E59" s="43" t="s">
         <v>93</v>
       </c>
@@ -2643,10 +2660,10 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="40" customHeight="1">
-      <c r="A60" s="53"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="67"/>
+      <c r="A60" s="54"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="68"/>
       <c r="E60" s="43" t="s">
         <v>94</v>
       </c>
@@ -2661,10 +2678,10 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="40" customHeight="1">
-      <c r="A61" s="54"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="68"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="69"/>
       <c r="E61" s="45" t="s">
         <v>95</v>
       </c>
@@ -2679,20 +2696,20 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="40" customHeight="1">
-      <c r="A62" s="52">
+      <c r="A62" s="53">
         <v>7</v>
       </c>
-      <c r="B62" s="60" t="s">
+      <c r="B62" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="C62" s="64"/>
-      <c r="D62" s="72" t="s">
+      <c r="C62" s="65"/>
+      <c r="D62" s="73" t="s">
         <v>96</v>
       </c>
       <c r="E62" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="F62" s="76" t="s">
+      <c r="F62" s="77" t="s">
         <v>97</v>
       </c>
       <c r="G62" s="42" t="s">
@@ -2703,14 +2720,14 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="40" customHeight="1">
-      <c r="A63" s="53"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="73"/>
+      <c r="A63" s="54"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="74"/>
       <c r="E63" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="F63" s="76"/>
+      <c r="F63" s="77"/>
       <c r="G63" s="43" t="s">
         <v>87</v>
       </c>
@@ -2719,14 +2736,14 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="40" customHeight="1">
-      <c r="A64" s="53"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="73"/>
+      <c r="A64" s="54"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="74"/>
       <c r="E64" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="F64" s="76"/>
+      <c r="F64" s="77"/>
       <c r="G64" s="43" t="s">
         <v>89</v>
       </c>
@@ -2735,14 +2752,14 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="40" customHeight="1">
-      <c r="A65" s="53"/>
-      <c r="B65" s="61"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="73"/>
+      <c r="A65" s="54"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="74"/>
       <c r="E65" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="F65" s="76"/>
+      <c r="F65" s="77"/>
       <c r="G65" s="44" t="s">
         <v>90</v>
       </c>
@@ -2751,14 +2768,14 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="40" customHeight="1">
-      <c r="A66" s="53"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="73"/>
+      <c r="A66" s="54"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="74"/>
       <c r="E66" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="F66" s="77"/>
+      <c r="F66" s="78"/>
       <c r="G66" s="43" t="s">
         <v>91</v>
       </c>
@@ -2767,14 +2784,14 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="40" customHeight="1">
-      <c r="A67" s="53"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="73"/>
+      <c r="A67" s="54"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="74"/>
       <c r="E67" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="F67" s="78" t="s">
+      <c r="F67" s="79" t="s">
         <v>98</v>
       </c>
       <c r="G67" s="43" t="s">
@@ -2785,14 +2802,14 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="40" customHeight="1">
-      <c r="A68" s="53"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="73"/>
+      <c r="A68" s="54"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="74"/>
       <c r="E68" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F68" s="76"/>
+      <c r="F68" s="77"/>
       <c r="G68" s="43" t="s">
         <v>93</v>
       </c>
@@ -2801,14 +2818,14 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="40" customHeight="1">
-      <c r="A69" s="53"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="73"/>
+      <c r="A69" s="54"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="74"/>
       <c r="E69" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="F69" s="76"/>
+      <c r="F69" s="77"/>
       <c r="G69" s="43" t="s">
         <v>94</v>
       </c>
@@ -2817,14 +2834,14 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="40" customHeight="1">
-      <c r="A70" s="54"/>
-      <c r="B70" s="63"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="75"/>
+      <c r="A70" s="55"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="76"/>
       <c r="E70" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="F70" s="79"/>
+      <c r="F70" s="80"/>
       <c r="G70" s="45" t="s">
         <v>95</v>
       </c>
@@ -2833,20 +2850,20 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="40" customHeight="1">
-      <c r="A71" s="56">
-        <v>8</v>
-      </c>
-      <c r="B71" s="60" t="s">
+      <c r="A71" s="57">
+        <v>8</v>
+      </c>
+      <c r="B71" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="C71" s="64"/>
-      <c r="D71" s="72" t="s">
+      <c r="C71" s="65"/>
+      <c r="D71" s="73" t="s">
         <v>99</v>
       </c>
       <c r="E71" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F71" s="76" t="s">
+      <c r="F71" s="77" t="s">
         <v>97</v>
       </c>
       <c r="G71" s="42" t="s">
@@ -2857,14 +2874,14 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="40" customHeight="1">
-      <c r="A72" s="57"/>
-      <c r="B72" s="61"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="73"/>
+      <c r="A72" s="58"/>
+      <c r="B72" s="62"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="74"/>
       <c r="E72" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="F72" s="76"/>
+      <c r="F72" s="77"/>
       <c r="G72" s="43" t="s">
         <v>87</v>
       </c>
@@ -2873,14 +2890,14 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="40" customHeight="1">
-      <c r="A73" s="57"/>
-      <c r="B73" s="61"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="73"/>
+      <c r="A73" s="58"/>
+      <c r="B73" s="62"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="74"/>
       <c r="E73" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="F73" s="76"/>
+      <c r="F73" s="77"/>
       <c r="G73" s="43" t="s">
         <v>89</v>
       </c>
@@ -2889,14 +2906,14 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="40" customHeight="1">
-      <c r="A74" s="57"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="73"/>
+      <c r="A74" s="58"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="74"/>
       <c r="E74" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="F74" s="76"/>
+      <c r="F74" s="77"/>
       <c r="G74" s="44" t="s">
         <v>90</v>
       </c>
@@ -2905,14 +2922,14 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="40" customHeight="1">
-      <c r="A75" s="57"/>
-      <c r="B75" s="61"/>
-      <c r="C75" s="64"/>
-      <c r="D75" s="73"/>
+      <c r="A75" s="58"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="65"/>
+      <c r="D75" s="74"/>
       <c r="E75" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="F75" s="77"/>
+      <c r="F75" s="78"/>
       <c r="G75" s="43" t="s">
         <v>91</v>
       </c>
@@ -2921,14 +2938,14 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="40" customHeight="1">
-      <c r="A76" s="57"/>
-      <c r="B76" s="61"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="73"/>
+      <c r="A76" s="58"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="65"/>
+      <c r="D76" s="74"/>
       <c r="E76" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="F76" s="78" t="s">
+      <c r="F76" s="79" t="s">
         <v>98</v>
       </c>
       <c r="G76" s="43" t="s">
@@ -2939,14 +2956,14 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="40" customHeight="1">
-      <c r="A77" s="57"/>
-      <c r="B77" s="61"/>
-      <c r="C77" s="64"/>
-      <c r="D77" s="73"/>
+      <c r="A77" s="58"/>
+      <c r="B77" s="62"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="74"/>
       <c r="E77" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="F77" s="76"/>
+      <c r="F77" s="77"/>
       <c r="G77" s="43" t="s">
         <v>93</v>
       </c>
@@ -2955,14 +2972,14 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="40" customHeight="1">
-      <c r="A78" s="57"/>
-      <c r="B78" s="61"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="73"/>
+      <c r="A78" s="58"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="74"/>
       <c r="E78" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="F78" s="76"/>
+      <c r="F78" s="77"/>
       <c r="G78" s="43" t="s">
         <v>94</v>
       </c>
@@ -2971,14 +2988,14 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="40" customHeight="1">
-      <c r="A79" s="58"/>
-      <c r="B79" s="61"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="73"/>
+      <c r="A79" s="59"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="65"/>
+      <c r="D79" s="74"/>
       <c r="E79" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="F79" s="76"/>
+      <c r="F79" s="77"/>
       <c r="G79" s="43" t="s">
         <v>95</v>
       </c>
@@ -2987,15 +3004,15 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="40" customHeight="1">
-      <c r="A80" s="59"/>
-      <c r="B80" s="63"/>
-      <c r="C80" s="64"/>
-      <c r="D80" s="75"/>
+      <c r="A80" s="60"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="76"/>
       <c r="E80" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="F80" s="79"/>
-      <c r="G80" s="48" t="s">
+      <c r="F80" s="80"/>
+      <c r="G80" s="49" t="s">
         <v>8</v>
       </c>
       <c r="H80" s="30" t="s">
@@ -3009,27 +3026,27 @@
       <c r="B81" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="C81" s="65"/>
-      <c r="D81" s="47"/>
-      <c r="E81" s="49"/>
-      <c r="F81" s="49"/>
-      <c r="G81" s="49"/>
+      <c r="C81" s="66"/>
+      <c r="D81" s="48"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="50"/>
       <c r="H81" s="41"/>
     </row>
     <row r="82" spans="1:8" ht="27" customHeight="1">
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" ht="49" customHeight="1">
-      <c r="A83" s="51" t="s">
+      <c r="A83" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="B83" s="51"/>
-      <c r="C83" s="51"/>
-      <c r="D83" s="51"/>
-      <c r="E83" s="51"/>
-      <c r="F83" s="51"/>
-      <c r="G83" s="51"/>
-      <c r="H83" s="51"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="52"/>
+      <c r="H83" s="52"/>
     </row>
     <row r="84" spans="1:8" ht="30" customHeight="1">
       <c r="A84" s="1"/>
@@ -3204,24 +3221,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
     </row>
     <row r="3" spans="1:11" ht="45.75" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -3246,41 +3263,41 @@
       <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A4" s="80">
+      <c r="A4" s="81">
         <v>9</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="87" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="85"/>
+      <c r="G4" s="86"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="80"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="85"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="86"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A6" s="80"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="85"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="86"/>
     </row>
     <row r="7" spans="1:11" ht="13" customHeight="1">
       <c r="A7" s="12"/>
@@ -3292,46 +3309,46 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="90" t="s">
+      <c r="F8" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="G8" s="85"/>
+      <c r="G8" s="86"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="80"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="85"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="86"/>
     </row>
     <row r="10" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A10" s="80"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="85"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="86"/>
     </row>
     <row r="11" spans="1:11" ht="16" customHeight="1">
-      <c r="A11" s="80"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -3340,52 +3357,52 @@
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
-      <c r="A12" s="80"/>
-      <c r="B12" s="82" t="s">
+      <c r="A12" s="81"/>
+      <c r="B12" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="87" t="s">
+      <c r="D12" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1">
-      <c r="A13" s="80"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="80"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="87" t="s">
+      <c r="A14" s="81"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="86"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
     </row>
     <row r="15" spans="1:11" ht="40" customHeight="1">
-      <c r="A15" s="80"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -3468,224 +3485,224 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="92">
+      <c r="A3" s="93">
         <v>1</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="108" t="s">
+      <c r="E3" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="108" t="s">
+      <c r="F3" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="99" t="s">
+      <c r="G3" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="108" t="s">
+      <c r="H3" s="109" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="92"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="108"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="109"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="93"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="108"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="109"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="92">
+      <c r="A6" s="93">
         <v>2</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="104"/>
-      <c r="F6" s="108" t="s">
+      <c r="E6" s="105"/>
+      <c r="F6" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="G6" s="99" t="s">
+      <c r="G6" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="108" t="s">
+      <c r="H6" s="109" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="92"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="108"/>
+      <c r="A7" s="93"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="109"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="92"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="108"/>
+      <c r="A8" s="93"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="109"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="92">
+      <c r="A9" s="93">
         <v>3</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="107" t="s">
+      <c r="D9" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="104"/>
-      <c r="F9" s="109" t="s">
+      <c r="E9" s="105"/>
+      <c r="F9" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="92"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="92"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
+      <c r="A11" s="93"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="92">
+      <c r="A12" s="93">
         <v>4</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="D12" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="109" t="s">
+      <c r="E12" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="104" t="s">
+      <c r="F12" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="113" t="s">
+      <c r="G12" s="114" t="s">
         <v>135</v>
       </c>
-      <c r="H12" s="104" t="s">
+      <c r="H12" s="105" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="92"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="105"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="106"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="92"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="106"/>
+      <c r="A14" s="93"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="107"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="92">
+      <c r="A15" s="93">
         <v>5</v>
       </c>
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="103" t="s">
+      <c r="C15" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="98" t="s">
+      <c r="D15" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="109" t="s">
+      <c r="E15" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="113" t="s">
+      <c r="F15" s="93"/>
+      <c r="G15" s="114" t="s">
         <v>135</v>
       </c>
-      <c r="H15" s="104" t="s">
+      <c r="H15" s="105" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="92"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="105"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="106"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="92"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="106"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="107"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="4"/>
@@ -3698,150 +3715,150 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="92">
+      <c r="A19" s="93">
         <v>6</v>
       </c>
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="94" t="s">
+      <c r="C19" s="105"/>
+      <c r="D19" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E19" s="103" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="110" t="s">
+      <c r="F19" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="G19" s="114"/>
-      <c r="H19" s="109" t="s">
+      <c r="G19" s="115"/>
+      <c r="H19" s="110" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="92"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="109"/>
+      <c r="A20" s="93"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="110"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="92"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="109"/>
+      <c r="A21" s="93"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="110"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="92">
+      <c r="A22" s="93">
         <v>7</v>
       </c>
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="95" t="s">
+      <c r="C22" s="93"/>
+      <c r="D22" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="102" t="s">
+      <c r="E22" s="103" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="104" t="s">
+      <c r="F22" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="G22" s="102" t="s">
+      <c r="G22" s="103" t="s">
         <v>136</v>
       </c>
-      <c r="H22" s="109" t="s">
+      <c r="H22" s="110" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="92"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="109"/>
+      <c r="A23" s="93"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="110"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="92"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="109"/>
+      <c r="A24" s="93"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="110"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="92">
-        <v>8</v>
-      </c>
-      <c r="B25" s="95" t="s">
+      <c r="A25" s="93">
+        <v>8</v>
+      </c>
+      <c r="B25" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="92"/>
-      <c r="D25" s="95" t="s">
+      <c r="C25" s="93"/>
+      <c r="D25" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="103" t="s">
+      <c r="E25" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="F25" s="104" t="s">
+      <c r="F25" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="G25" s="102" t="s">
+      <c r="G25" s="103" t="s">
         <v>136</v>
       </c>
-      <c r="H25" s="114"/>
+      <c r="H25" s="115"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="92"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="114"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="115"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="92"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="114"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="115"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="115" t="s">
+      <c r="B29" s="116" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="65">
